--- a/api/data/CATEGORY.xlsx
+++ b/api/data/CATEGORY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F08488-D6F2-BF4D-B0C3-31E29776D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9807D6-2716-0B46-A904-B313DC9BFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{241B12F7-50D7-CC44-9813-693DC12E8E37}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16480" windowHeight="20620" xr2:uid="{241B12F7-50D7-CC44-9813-693DC12E8E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,38 +20,38 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>category_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라식/라섹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임플란트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강검진</t>
+    <t>IMPLANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLASTIC SURGERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICAL CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON-SURGICAL COSMETIC TREATMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASIK,LASEK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEDD877-7E86-A440-8C9F-B8DE93C2390E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -432,22 +432,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
